--- a/09022023_yahoo_scraped_data.xlsx
+++ b/09022023_yahoo_scraped_data.xlsx
@@ -450,49 +450,49 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>S&amp;P 5004,509.60+1.94(+0.04%)</t>
+          <t>S&amp;P 5004,512.98+5.32(+0.12%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Dow 3034,765.71+43.80(+0.13%)</t>
+          <t>Dow 3034,792.76+70.85(+0.20%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Nasdaq14,018.88-16.09(-0.11%)</t>
+          <t>Nasdaq14,029.75-5.22(-0.04%)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Russell 20001,925.37+25.70(+1.35%)</t>
+          <t>Russell 20001,923.48+23.80(+1.25%)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Crude Oil84.73+1.10(+1.32%)</t>
+          <t>Crude Oil85.34+1.71(+2.04%)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Gold1,963.60-2.30(-0.12%)</t>
+          <t>Gold1,964.40-1.50(-0.08%)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Nasdaq turns negative after surprise rise in US unemployment</t>
+          <t>Stocks mixed after surprise rise in US unemployment</t>
         </is>
       </c>
     </row>
@@ -506,28 +506,28 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Home builder stocks shine as buyers turn to new construction</t>
+          <t>Disney pulls channels off Charter Spectrum as dispute escalates</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>US will regulate nursing home staffing for first time</t>
+          <t>Fed's Mester: 'Job market is still strong' despite higher unemployment</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>What investors should know going in September</t>
+          <t>Why Lululemon is positioned well for back-to-school shopping</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Construction industry adds 22,000 U.S. jobs in August</t>
+          <t>Hollywood strikes: ‘Focus on the consumer,’ MNTN CEO says</t>
         </is>
       </c>
     </row>
@@ -555,14 +555,14 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Smoke and mirrors: I’ve been debating Vivek Ramaswamy for 2 years. Here’s how I got past his diversionary tactics</t>
+          <t>Pretzel-shop worker with pennies in bank account charged in $1M scheme to buy Tesla, GameStop, Nvidia shares</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>40 Movies That Are Considered To Be Almost Perfect</t>
+          <t>Most Shocking Red Carpet Moments of All Time</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>8 CDs Are Offering a Record Rate of 6%</t>
+          <t>Seeking up to 24% Dividend Yield? Analysts Suggest 2 Dividend Stocks to Buy</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Stocks were mixed in mid-morning trading on Friday after the August payrolls report showed a surprise jump in US unemployment as the economy added more jobs than expected.</t>
+          <t>Stocks were mixed Friday afternoon after the August payrolls report showed a surprise jump in US unemployment as the economy added more jobs than expected.</t>
         </is>
       </c>
     </row>
@@ -630,14 +630,14 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CNN Business</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AP Finance</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
     </row>
@@ -679,14 +679,14 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Vivek Ramaswamy's fiercest critic, Yale Professor Jeffrey Sonnenfeld, has studied the presidential hopeful's debate strategies–and his business record.</t>
+          <t>The SEC has charged a 23-year-old part-time pretzel-shop worker in a $1 million fraud scheme to buy shares of Tesla, GameStop and Nvidia.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Best Movies of All Time That You Should Watch Immediately</t>
+          <t>Celebrity Fashion Fails From the Red Carpet That We Can't Forget</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CD rates have hit a new record, reaching 6%—and beyond—for the first time in more than 16 years. Across the country, we're aware of 8 options paying this historic rate.</t>
+          <t>Do you love dividends? Of course you do — and rightly so! Scholars who study the stock market’s historical performance estimate that over time, the payment (and reinvestment, and compounding) of dividends have contributed anywhere from 30% to 90% of the S&amp;P 500’s total returns. Simply put, if you’re not investing in dividend stocks, you’re doing it wrong. Using the TipRanks platform, we’ve looked up two stocks that are offering up to 24% yield – that’s almost 15x higher the average yield found i</t>
         </is>
       </c>
     </row>
@@ -1006,14 +1006,14 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/nasdaq-turns-negative-after-surprise-rise-in-us-unemployment-stock-market-news-today-150309307.html</t>
+          <t>https://finance.yahoo.com/news/stocks-mixed-after-surprise-rise-in-us-unemployment-stock-market-news-today-163227179.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/nasdaq-turns-negative-after-surprise-rise-in-us-unemployment-stock-market-news-today-150309307.html</t>
+          <t>https://finance.yahoo.com/news/stocks-mixed-after-surprise-rise-in-us-unemployment-stock-market-news-today-163227179.html</t>
         </is>
       </c>
     </row>
@@ -1027,28 +1027,28 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/home-builder-stocks-shine-prospective-112013547.html</t>
+          <t>https://finance.yahoo.com/news/disney-pulls-channels-off-charter-spectrum-as-negotiation-dispute-escalates-160100358.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/news/us-regulate-nursing-home-staffing-103127010.html</t>
+          <t>https://finance.yahoo.com/news/feds-mester-job-market-is-still-strong-despite-higher-unemployment-160848377.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/video/investors-know-going-september-150625835.html</t>
+          <t>https://finance.yahoo.com/video/why-lululemon-positioned-well-back-160605231.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>https://finance.yahoo.com/video/construction-industry-adds-22-000-150228051.html</t>
+          <t>https://finance.yahoo.com/video/hollywood-strikes-focus-consumer-mntn-155910504.html</t>
         </is>
       </c>
     </row>
@@ -1076,14 +1076,14 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>/news/smoke-mirrors-ve-debating-vivek-153316722.html</t>
+          <t>/news/pretzel-shop-worker-pennies-bank-213746443.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>https://a.beap.gemini.yahoo.com/mbclk?bv=3.0.0&amp;es=AQAAAOMovDIUHsoPG0sY_fNR7AJkK-X-6Xkde7lYXJyQHbgMSf3dTl9q5dRP6YHGhoRN-IN8tsm7I2zB3-ZD_dyZ1iHLBS4FIUCDZZs3H7gVr-2PWmDYrsBZVNlJRC9j0owG5LWUIBAHPlDZxDJ_QZnIPQ6gDDJAm5oWrNyS-lVk8oG_UawV1jZ-fvkpILEhEYSXkTGRWHzP30ebBAGFbx0EZJ4O2QWTXUZEsBX3R9oa4PwBKU8MkgWLIkx43F4hy0p9_vmcEFFAUDc-KUbMqy1Uwz-1HGI-1Ay3Viv-uROvziKP3pvWzwhWhV75WIy1ssq-sQOCVOUmFc3p76-hANKrY0p4LAQRKHiy9USAzao1QQzs4xTmRL-CGgd-WLMEtgL6lenV_M_dO3JM0rIPPeJUWx_hzGKqA5wn4z4L7TH5-I6apNIzlQROY62bqkOiXNp_bAWGISk0BeiDDoiDfXeeRZMPV3GXFuLl3HOOf60-lG7bu7nw7d473hkiLwzEQxQQ4s16qw-phAJdq3lbK6u47C2s2cLc6ViWRr5GxJR5fDVm8EtKkXYNIoHEDGulm8E64RQrq5rtMfVL1awhUZ5VPSYc8HDRV0zx-iIvuYXxVgNpZO94UYfg6TOAo-xnldGy7tXbpN1_4w6KRgB6Pvyrxu53xLGKHGz2plU3cPMTU6h_xfJwUTehmAEYYEJ10M7LZiHOpua8EyTN2XcDqsSsCReYp2N06xXbKubS2ezzSn32r3ykVRowZ_ctSZKhkMEzynbJ7RZqlxkutb81neMGquyet-B3en5OZ2slXDG0ZcJyh6Q</t>
+          <t>https://a.beap.gemini.yahoo.com/mbclk?bv=3.0.0&amp;es=AQAAAG5tHy8ItCXYAOntFjbpJV6qXBkqSurgGnZ2DZu4bnyiGYrt8zq8FiyR4v7XTuBUAwq2bQ67biJ4CpRRNsRcv6nvFpcDsjMGyA-OvvLi7OrxGTH8Ii-TKP9s6c-TmSJo_H8M8TzC8IaXZaUDOZONTNAVqzao2uKFB01iu6Yb_p-e5rcM2YYdd3oNDFLr1zH-9FaQrcXfPrNpX0ATC_4mDRp4YT5fkJvmVrKo9UhDf0ANNYL_chOIesK1zXBKsdJNjmbnnJrlK_lsvlPVfHiIFhx8jeGzyykFMmy4TMqQ4eYhspUGOXJJX3Fb5gHSk4NtKTTtBNz4ucSP0vQo1Ky1TxjR6vTHF6sq-fD1DF3ltNMZwjcM6kOkqnHJgQnuF5xrKtVTi9uijdNbKag1xfLSrsA24f2SSBe7hQawv7tpYgkJ7Ru8Du-zpkKmsSvqyC6k1QQnR7MrAg2Q7rbsHiYtEPeC8b68x-4kqee8t8ikcgeu9Fctn3CaPEuq3OCh9Neykf2P5_SWnKfrxzzctqsNXk7_68f_l0WlTuD1jzQr8oRWpesdlF0Q7_uktjoy08n-bU1m2F3ZVplJcWJ9UDEYR3LReOWB9xjibf-CfTd8Eq9dhxe9n-BP_dD33PgATGVeai8Nlus400Mqdbgzzc_gHJErjPvH7xVKJ1Pb87XtdNgX7HCudoXv6VqBS-KTk_hMTszeYnYMPB6thCG3sSYW3_xqlfW96iVco4tYjGXZq8M-2F68d0l21Rnbw8XIC1GcU9SUsRHirSyGxzaErlXG_H2-CMLO5A</t>
         </is>
       </c>
     </row>
@@ -1097,14 +1097,14 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>https://a.beap.gemini.yahoo.com/mbclk?bv=3.0.0&amp;es=AQAAAOMovDIUHsoPG0sY_fNR7AJkK-X-6Xkde7lYXJyQHbgMSf3dTl9q5dRP6YHGhoRN-IN8tsm7I2zB3-ZD_dyZ1iHLBS4FIUCDZZs3H7gVr-2PWmDYrsBZVNlJRC9j0owG5LWUIBAHPlDZxDJ_QZnIPQ6gDDJAm5oWrNyS-lVk8oG_UawV1jZ-fvkpILEhEYSXkTGRWHzP30ebBAGFbx0EZJ4O2QWTXUZEsBX3R9oa4PwBKU8MkgWLIkx43F4hy0p9_vmcEFFAUDc-KUbMqy1Uwz-1HGI-1Ay3Viv-uROvziKP3pvWzwhWhV75WIy1ssq-sQOCVOUmFc3p76-hANKrY0p4LAQRKHiy9USAzao1QQzs4xTmRL-CGgd-WLMEtgL6lenV_M_dO3JM0rIPPeJUWx_hzGKqA5wn4z4L7TH5-I6apNIzlQROY62bqkOiXNp_bAWGISk0BeiDDoiDfXeeRZMPV3GXFuLl3HOOf60-lG7bu7nw7d473hkiLwzEQxQQ4s16qw-phAJdq3lbK6u47C2s2cLc6ViWRr5GxJR5fDVm8EtKkXYNIoHEDGulm8E64RQrq5rtMfVL1awhUZ5VPSYc8HDRV0zx-iIvuYXxVgNpZO94UYfg6TOAo-xnldGy7tXbpN1_4w6KRgB6Pvyrxu53xLGKHGz2plU3cPMTU6h_xfJwUTehmAEYYEJ10M7LZiHOpua8EyTN2XcDqsSsCReYp2N06xXbKubS2ezzSn32r3ykVRowZ_ctSZKhkMEzynbJ7RZqlxkutb81neMGquyet-B3en5OZ2slXDG0ZcJyh6Q</t>
+          <t>https://a.beap.gemini.yahoo.com/mbclk?bv=3.0.0&amp;es=AQAAAG5tHy8ItCXYAOntFjbpJV6qXBkqSurgGnZ2DZu4bnyiGYrt8zq8FiyR4v7XTuBUAwq2bQ67biJ4CpRRNsRcv6nvFpcDsjMGyA-OvvLi7OrxGTH8Ii-TKP9s6c-TmSJo_H8M8TzC8IaXZaUDOZONTNAVqzao2uKFB01iu6Yb_p-e5rcM2YYdd3oNDFLr1zH-9FaQrcXfPrNpX0ATC_4mDRp4YT5fkJvmVrKo9UhDf0ANNYL_chOIesK1zXBKsdJNjmbnnJrlK_lsvlPVfHiIFhx8jeGzyykFMmy4TMqQ4eYhspUGOXJJX3Fb5gHSk4NtKTTtBNz4ucSP0vQo1Ky1TxjR6vTHF6sq-fD1DF3ltNMZwjcM6kOkqnHJgQnuF5xrKtVTi9uijdNbKag1xfLSrsA24f2SSBe7hQawv7tpYgkJ7Ru8Du-zpkKmsSvqyC6k1QQnR7MrAg2Q7rbsHiYtEPeC8b68x-4kqee8t8ikcgeu9Fctn3CaPEuq3OCh9Neykf2P5_SWnKfrxzzctqsNXk7_68f_l0WlTuD1jzQr8oRWpesdlF0Q7_uktjoy08n-bU1m2F3ZVplJcWJ9UDEYR3LReOWB9xjibf-CfTd8Eq9dhxe9n-BP_dD33PgATGVeai8Nlus400Mqdbgzzc_gHJErjPvH7xVKJ1Pb87XtdNgX7HCudoXv6VqBS-KTk_hMTszeYnYMPB6thCG3sSYW3_xqlfW96iVco4tYjGXZq8M-2F68d0l21Rnbw8XIC1GcU9SUsRHirSyGxzaErlXG_H2-CMLO5A</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>https://a.beap.gemini.yahoo.com/mbclk?bv=3.0.0&amp;es=AQAAAOMovDIUHsoPG0sY_fNR7AJkK-X-6Xkde7lYXJyQHbgMSf3dTl9q5dRP6YHGhoRN-IN8tsm7I2zB3-ZD_dyZ1iHLBS4FIUCDZZs3H7gVr-2PWmDYrsBZVNlJRC9j0owG5LWUIBAHPlDZxDJ_QZnIPQ6gDDJAm5oWrNyS-lVk8oG_UawV1jZ-fvkpILEhEYSXkTGRWHzP30ebBAGFbx0EZJ4O2QWTXUZEsBX3R9oa4PwBKU8MkgWLIkx43F4hy0p9_vmcEFFAUDc-KUbMqy1Uwz-1HGI-1Ay3Viv-uROvziKP3pvWzwhWhV75WIy1ssq-sQOCVOUmFc3p76-hANKrY0p4LAQRKHiy9USAzao1QQzs4xTmRL-CGgd-WLMEtgL6lenV_M_dO3JM0rIPPeJUWx_hzGKqA5wn4z4L7TH5-I6apNIzlQROY62bqkOiXNp_bAWGISk0BeiDDoiDfXeeRZMPV3GXFuLl3HOOf60-lG7bu7nw7d473hkiLwzEQxQQ4s16qw-phAJdq3lbK6u47C2s2cLc6ViWRr5GxJR5fDVm8EtKkXYNIoHEDGulm8E64RQrq5rtMfVL1awhUZ5VPSYc8HDRV0zx-iIvuYXxVgNpZO94UYfg6TOAo-xnldGy7tXbpN1_4w6KRgB6Pvyrxu53xLGKHGz2plU3cPMTU6h_xfJwUTehmAEYYEJ10M7LZiHOpua8EyTN2XcDqsSsCReYp2N06xXbKubS2ezzSn32r3ykVRowZ_ctSZKhkMEzynbJ7RZqlxkutb81neMGquyet-B3en5OZ2slXDG0ZcJyh6Q</t>
+          <t>https://a.beap.gemini.yahoo.com/mbclk?bv=3.0.0&amp;es=AQAAAG5tHy8ItCXYAOntFjbpJV6qXBkqSurgGnZ2DZu4bnyiGYrt8zq8FiyR4v7XTuBUAwq2bQ67biJ4CpRRNsRcv6nvFpcDsjMGyA-OvvLi7OrxGTH8Ii-TKP9s6c-TmSJo_H8M8TzC8IaXZaUDOZONTNAVqzao2uKFB01iu6Yb_p-e5rcM2YYdd3oNDFLr1zH-9FaQrcXfPrNpX0ATC_4mDRp4YT5fkJvmVrKo9UhDf0ANNYL_chOIesK1zXBKsdJNjmbnnJrlK_lsvlPVfHiIFhx8jeGzyykFMmy4TMqQ4eYhspUGOXJJX3Fb5gHSk4NtKTTtBNz4ucSP0vQo1Ky1TxjR6vTHF6sq-fD1DF3ltNMZwjcM6kOkqnHJgQnuF5xrKtVTi9uijdNbKag1xfLSrsA24f2SSBe7hQawv7tpYgkJ7Ru8Du-zpkKmsSvqyC6k1QQnR7MrAg2Q7rbsHiYtEPeC8b68x-4kqee8t8ikcgeu9Fctn3CaPEuq3OCh9Neykf2P5_SWnKfrxzzctqsNXk7_68f_l0WlTuD1jzQr8oRWpesdlF0Q7_uktjoy08n-bU1m2F3ZVplJcWJ9UDEYR3LReOWB9xjibf-CfTd8Eq9dhxe9n-BP_dD33PgATGVeai8Nlus400Mqdbgzzc_gHJErjPvH7xVKJ1Pb87XtdNgX7HCudoXv6VqBS-KTk_hMTszeYnYMPB6thCG3sSYW3_xqlfW96iVco4tYjGXZq8M-2F68d0l21Rnbw8XIC1GcU9SUsRHirSyGxzaErlXG_H2-CMLO5A</t>
         </is>
       </c>
     </row>
@@ -1118,21 +1118,21 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>/m/96e29472-7a9b-3712-92f6-ce6dc2e052f4/8-cds-are-offering-a-record.html</t>
+          <t>/news/seeking-24-dividend-yield-analysts-145558391.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>/personal-finance/are-cds-worth-it-202403284.html</t>
+          <t>/news/10-high-dividend-stocks-invest-173806107.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>/m/0274a39f-88c6-37f3-bb01-31879b9d7d1f/top-cds-today-new-leading.html</t>
+          <t>/news/why-primo-prmw-great-dividend-154508854.html</t>
         </is>
       </c>
     </row>
@@ -1347,28 +1347,28 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/d5WDvawnaYw4WffLdDhcVg--~B/Zmk9c3RyaW07aD0xMzA7dz0xMzA7YXBwaWQ9eXRhY2h5b24-/https://s.yimg.com/os/creatr-uploaded-images/2023-08/ae885160-48d4-11ee-aec7-d9041b322d75.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/LwfieoZ80u7uGjpg1ggIkg--~B/Zmk9c3RyaW07aD0xMzA7dz0xMzA7YXBwaWQ9eXRhY2h5b24-/https://s.yimg.com/os/creatr-uploaded-images/2023-08/e4b4dc70-36b6-11ee-b9bc-b199711a054d.cf.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/tob4ywJP49S2qNcuBVSO9w--~B/Zmk9c3RyaW07aD0xMzA7dz0xMzA7YXBwaWQ9eXRhY2h5b24-/https://media.zenfs.com/en/ap_finance_articles_694/186cb6946c0efd27376c15a259b681dc.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/dyA8kRXqimr2R2E8rGDAuw--~B/Zmk9c3RyaW07aD0xMzA7dz0xMzA7YXBwaWQ9eXRhY2h5b24-/https://s.yimg.com/os/creatr-uploaded-images/2023-08/7ba312b0-48d6-11ee-bced-eba642256252.cf.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/uDG8mLTYMV0cTma2BWhLZg--~B/Zmk9c3RyaW07aD0xMTM7dz0yMDE7YXBwaWQ9eXRhY2h5b24-/https://s.yimg.com/os/creatr-uploaded-images/2023-09/fdcbc5f0-48d8-11ee-b6af-1dd7c0476ec5.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/gi9REog3kYVnez45KzVYhQ--~B/Zmk9c3RyaW07aD0xMTM7dz0yMDE7YXBwaWQ9eXRhY2h5b24-/https://s.yimg.com/os/creatr-uploaded-images/2023-08/ea5b1720-48db-11ee-9fd4-a24b1799af45.cf.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/bJz2jUascME9JpnZZUClTQ--~B/Zmk9c3RyaW07aD0xMTM7dz0yMDE7YXBwaWQ9eXRhY2h5b24-/https://s.yimg.com/os/creatr-uploaded-images/2023-09/10e39470-48d8-11ee-bdfe-558f8928aa1a.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/Y2ByHhPTUAM7wxddA845JQ--~B/Zmk9c3RyaW07aD0xMTM7dz0yMDE7YXBwaWQ9eXRhY2h5b24-/https://s.yimg.com/os/creatr-uploaded-images/2023-09/95c18a60-48df-11ee-96cf-8ee83768feeb.cf.jpg</t>
         </is>
       </c>
     </row>
@@ -1396,35 +1396,35 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/NQ1feHwRWzZFnuTzlWprtg--~B/Zmk9c3RyaW07aD0xMjM7cT04MDt3PTIyMDthcHBpZD15dGFjaHlvbg--/https://media.zenfs.com/en/fortune_175/162afc61f82c20c82490675d7d12fb21.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/mHZuTF9Ib42WXGnAbVQ6EQ--~B/Zmk9c3RyaW07aD0xMjM7cT04MDt3PTIyMDthcHBpZD15dGFjaHlvbg--/https://media.zenfs.com/en/fox_business_text_367/3840840a11837931e402bdf0227b497d.cf.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/mQ29hwCxerh3U3cqR0jthg--~B/Zmk9c3RyaW07aD0yMzA7cT04MDt3PTQ0MDthcHBpZD15dGFjaHlvbg--/https://s.yimg.com/av/ads/1664355775806-2329.jpg.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/znO8oFmOtfMx029f1ETkvg--~B/Zmk9c3RyaW07aD0yMzA7cT04MDt3PTQ0MDthcHBpZD15dGFjaHlvbg--/https://s.yimg.com/av/curveball/ads/pr/RESIZE_AND_CROP/1200x627/7543a19a68eb4bd61a7308250d525cd9.jpeg.cf.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/N5Vax.wKkQ8Xs9uHfRye0g--~B/Zmk9c3RyaW07aD0xOTM7cT04MDt3PTIyMDthcHBpZD15dGFjaHlvbg--/https://media.zenfs.com/en/investopedia.com/bddb84b8b38ea18dc8a150497dc6554d.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/M9o5hjKN.smqRAU2fA6W4g--~B/Zmk9c3RyaW07aD0xOTM7cT04MDt3PTIyMDthcHBpZD15dGFjaHlvbg--/https://media.zenfs.com/en/tipranks_452/f7e60e32d514c7a8dcd5f195fbf45d13.cf.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/9ZeW0Q.jM49FiLppm9we6A--~B/Zmk9c3RyaW07aD0xNDQ7cT04MDt3PTE0NDthcHBpZD15dGFjaHlvbg--/https://s.yimg.com/os/creatr-uploaded-images/2023-07/94209490-2fc5-11ee-bdbb-4344a9b16812.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/Cepuu3ezKyHP9ZEo584MXQ--~B/Zmk9c3RyaW07aD0xNDQ7cT04MDt3PTE0NDthcHBpZD15dGFjaHlvbg--/https://media.zenfs.com/en/bankrate_626/f72b21d68b8eef1c5d9c49ca287d8790.cf.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>https://s.yimg.com/uu/api/res/1.2/R1iERX3BJYsJVhBFqIJFig--~B/Zmk9c3RyaW07aD0xNDQ7cT04MDt3PTE0NDthcHBpZD15dGFjaHlvbg--/https://media.zenfs.com/en/investopedia.com/2d43ba2407eaf06296459ac57d5443f1.cf.jpg</t>
+          <t>https://s.yimg.com/uu/api/res/1.2/21WRn6NCuODdjvZWQEdgFA--~B/Zmk9c3RyaW07aD0xNDQ7cT04MDt3PTE0NDthcHBpZD15dGFjaHlvbg--/https://media.zenfs.com/en/zacks.com/090f58c1efbe3555b861102525e50b39.cf.jpg</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>eyJwb3NpdGlvbnMiOlt7ImlkIjoiTU9OIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJNT04iLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiIyIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiMCIsInR0bCI6LTEsImVyciI6ImludmFsaWQgKGRhcmxhKSAobm8pIiwiaGFzRXh0ZXJuYWwiOmZhbHNlLCJzdXBwX3VnYyI6IiIsInBsYWNlbWVudElEIjotMSwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6IiIsImNyZWF0aXZlSUQiOi0xLCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMXgxIn19LCJjb25mIjp7InciOjEsImgiOjF9fSx7ImlkIjoiTU9OMiIsImxvd0hUTUwiOiIiLCJtZXRhIjp7InkiOnsicG9zIjoiTU9OMiIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIjIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiIwIiwidHRsIjotMSwiZXJyIjoiaW52YWxpZCAoZGFybGEpIChubykiLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOi0xLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiIiwiY3JlYXRpdmVJRCI6LTEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIxeDEifX0sImNvbmYiOnsidyI6MSwiaCI6MX19LHsiaWQiOiJCVE5BIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJCVE5BIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMxIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjoibm9hZCIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX0seyJpZCI6IkJUTkIiLCJsb3dIVE1MIjoiIiwibWV0YSI6eyJ5Ijp7InBvcyI6IkJUTkIiLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiIzEiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiIiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjYiLCJ0dGwiOi0xLCJlcnIiOiJub2FkIiwiaGFzRXh0ZXJuYWwiOmZhbHNlLCJzdXBwX3VnYyI6IiIsInBsYWNlbWVudElEIjotMSwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6IiIsImNyZWF0aXZlSUQiOi0xLCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMXgxIn19LCJjb25mIjp7InciOjEsImgiOjF9fSx7ImlkIjoiQlROQyIsImxvd0hUTUwiOiIiLCJtZXRhIjp7InkiOnsicG9zIjoiQlROQyIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIjMSIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6Im5vYWQiLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOi0xLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiIiwiY3JlYXRpdmVJRCI6LTEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIxeDEifX0sImNvbmYiOnsidyI6MSwiaCI6MX19LHsiaWQiOiJCVE5EIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJCVE5EIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMxIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjoibm9hZCIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX0seyJpZCI6IkxEUkIiLCJsb3dIVE1MIjoiIiwibWV0YSI6eyJ5Ijp7InBvcyI6IkxEUkIiLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiMTExNzAxNjYiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiMTExNzAxNjYiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6ZmFsc2UsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6IjExMTcwMTY2IiwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6Ii0xIiwiY3JlYXRpdmVJRCI6MjY4ODg5NDEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiI3Mjh4OTAifX0sImNvbmYiOnsidyI6NzI4LCJoIjo5MH19LHsiaWQiOiJMUkVDIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJMUkVDIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IjExMTcwMjc5IiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IjExMTcwMjc5Iiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjYiLCJ0dGwiOi0xLCJlcnIiOmZhbHNlLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOiIxMTE3MDI3OSIsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiItMSIsImNyZWF0aXZlSUQiOjI2ODg4ODQ5LCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMzAweDI1MCJ9fSwiY29uZiI6eyJ3IjozMDAsImgiOjI1MH19LHsiaWQiOiJMUkVDMiIsImxvd0hUTUwiOiIiLCJtZXRhIjp7InkiOnsicG9zIjoiTFJFQzIiLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiMTExNzAzMjYiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiMTExNzAzMjYiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6ZmFsc2UsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6IjExMTcwMzI2IiwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6Ii0xIiwiY3JlYXRpdmVJRCI6MjY4ODg4NTAsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIzMDB4MjUwIn19LCJjb25mIjp7InciOjMwMCwiaCI6MjUwfX0seyJpZCI6IkxSRUMzIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJMUkVDMyIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIxMTE3MDMyNyIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIxMTE3MDMyNyIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjpmYWxzZSwiaGFzRXh0ZXJuYWwiOmZhbHNlLCJzdXBwX3VnYyI6IiIsInBsYWNlbWVudElEIjoiMTExNzAzMjciLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiLTEiLCJjcmVhdGl2ZUlEIjoyNjg4ODg1MSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjMwMHgyNTAifX0sImNvbmYiOnsidyI6MzAwLCJoIjoyNTB9fSx7ImlkIjoiTFJFQzQiLCJsb3dIVE1MIjoiIiwibWV0YSI6eyJ5Ijp7InBvcyI6IkxSRUM0IiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IjExMTcwMjUzIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IjExMTcwMjUzIiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjYiLCJ0dGwiOi0xLCJlcnIiOmZhbHNlLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOiIxMTE3MDI1MyIsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiItMSIsImNyZWF0aXZlSUQiOjI2ODg4ODUyLCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMzAweDI1MCJ9fSwiY29uZiI6eyJ3IjozMDAsImgiOjI1MH19LHsiaWQiOiJNQVNUIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJNQVNUIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiIiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjAiLCJ0dGwiOi0xLCJlcnIiOiJpbnZhbGlkIChkYXJsYSkgKG5vKSIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX0seyJpZCI6IlNDUkVDIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJTQ1JFQyIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIjMSIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6Im5vYWQiLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOi0xLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiIiwiY3JlYXRpdmVJRCI6LTEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIxeDEifX0sImNvbmYiOnsidyI6MSwiaCI6MX19LHsiaWQiOiJGT09UIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJGT09UIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMxIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjoibm9hZCIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX1dLCJjb25mIjpudWxsLCJtZXRhIjp7InkiOnsicG9zX2xpc3QiOlsiTU9OIiwiTU9OMiIsIkJUTkEiLCJCVE5CIiwiQlROQyIsIkJUTkQiLCJMRFJCIiwiTFJFQyIsIkxSRUMyIiwiTFJFQzMiLCJMUkVDNCIsIk1BU1QiLCJTQ1JFQyIsIkZPT1QiXSwidHJhbnNJRCI6ImRhcmxhX3ByZWZldGNoXzE2OTM1ODI4NjQ0MjFfMTY1NjIzOTQ2Nl8zIiwiazJfdXJpIjoiIiwiZmFjX3J0IjotMSwidHRsIjotMSwic3BhY2VJRCI6IjExODMzMDAwMDIiLCJsb29rdXBUaW1lIjoyNjUsInByb2NUaW1lIjoyNjgsIm5wdiI6MCwicHZpZCI6ImtDV2pwVEV3Tmk3T3RPSkM5Nkl6UEFSUE1qUXdNQUFBQUFEOUIuaDciLCJzZXJ2ZVRpbWUiOi0xLCJlcCI6eyJzaXRlLWF0dHJpYnV0ZSI6IiBnZW1pbmlmZWQ9MSBjdG91dD00MDAgWS1CVUNLRVQ9ZmluYW5jZS1VUy1lbi1VUy1kZWYgTFJFQz0zMDB4MjUwLDF4MSBycz1cInB0OmhvbWU7c2l0ZTpmaW5hbmNlO3Zlcjp5ZG90Y29tO2x1OjBcIiBtaWdyYXRpb249MSIsInRndCI6Il9ibGFuayIsInNlY3VyZSI6dHJ1ZSwicmVmIjoiaHR0cHM6XC9cL2ZpbmFuY2UueWFob28uY29tXC8iLCJ1bHQiOnsicGciOnsicHJvcGVydHkiOiJmaW5hbmNlX2VuLVVTIiwidGVzdCI6ImZpbmFuY2UtVVMtZW4tVVMtZGVmIiwicmlkIjoiN3RmczRkZGlmNDFnZiJ9fSwiY2x3Ijp7IkxSRUMiOnsiYmxvY2tlZF9ieSI6Ik1PTi0xIn0sIk1PTi0xIjp7ImJsb2NrZWRfYnkiOiJMUkVDIn0sIk1BU1QiOnsiYmxvY2tlZF9ieSI6IlNQTCxMRFJCIn0sIkxEUkIiOnsiYmxvY2tlZF9ieSI6Ik1BU1QsU1BMIn0sIlNQTCI6eyJibG9ja2VkX2J5IjoiTUFTVCxMRFJCIn19LCJsYW5nIjoiZW4tVVMiLCJmaWx0ZXIiOiJub19leHBhbmRhYmxlO2V4cF9pZnJhbWVfZXhwYW5kYWJsZTsiLCJkYXJsYUlEIjoiZGFybGFfaW5zdGFuY2VfMTY5MzU4Mjg2NDQyMV8xNDQzNjg1MjY3XzIifSwicHltIjp7Ii4iOiJ2MC4wLjk7Oy07In0sImhvc3QiOiIiLCJmaWx0ZXJlZCI6W119fX0=</t>
+          <t>eyJwb3NpdGlvbnMiOlt7ImlkIjoiTU9OIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJNT04iLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiIyIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiMCIsInR0bCI6LTEsImVyciI6ImludmFsaWQgKGRhcmxhKSAobm8pIiwiaGFzRXh0ZXJuYWwiOmZhbHNlLCJzdXBwX3VnYyI6IiIsInBsYWNlbWVudElEIjotMSwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6IiIsImNyZWF0aXZlSUQiOi0xLCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMXgxIn19LCJjb25mIjp7InciOjEsImgiOjF9fSx7ImlkIjoiTU9OMiIsImxvd0hUTUwiOiIiLCJtZXRhIjp7InkiOnsicG9zIjoiTU9OMiIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIjIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiIwIiwidHRsIjotMSwiZXJyIjoiaW52YWxpZCAoZGFybGEpIChubykiLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOi0xLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiIiwiY3JlYXRpdmVJRCI6LTEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIxeDEifX0sImNvbmYiOnsidyI6MSwiaCI6MX19LHsiaWQiOiJCVE5BIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJCVE5BIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMxIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjoibm9hZCIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX0seyJpZCI6IkJUTkIiLCJsb3dIVE1MIjoiIiwibWV0YSI6eyJ5Ijp7InBvcyI6IkJUTkIiLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiIzEiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiIiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjYiLCJ0dGwiOi0xLCJlcnIiOiJub2FkIiwiaGFzRXh0ZXJuYWwiOmZhbHNlLCJzdXBwX3VnYyI6IiIsInBsYWNlbWVudElEIjotMSwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6IiIsImNyZWF0aXZlSUQiOi0xLCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMXgxIn19LCJjb25mIjp7InciOjEsImgiOjF9fSx7ImlkIjoiQlROQyIsImxvd0hUTUwiOiIiLCJtZXRhIjp7InkiOnsicG9zIjoiQlROQyIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIjMSIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6Im5vYWQiLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOi0xLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiIiwiY3JlYXRpdmVJRCI6LTEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIxeDEifX0sImNvbmYiOnsidyI6MSwiaCI6MX19LHsiaWQiOiJCVE5EIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJCVE5EIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMxIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjoibm9hZCIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX0seyJpZCI6IkxEUkIiLCJsb3dIVE1MIjoiIiwibWV0YSI6eyJ5Ijp7InBvcyI6IkxEUkIiLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiMTExNzAxNjYiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiMTExNzAxNjYiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6ZmFsc2UsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6IjExMTcwMTY2IiwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6Ii0xIiwiY3JlYXRpdmVJRCI6MjY4ODg5NDEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiI3Mjh4OTAifX0sImNvbmYiOnsidyI6NzI4LCJoIjo5MH19LHsiaWQiOiJMUkVDIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJMUkVDIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IjExMTcwMjc5IiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IjExMTcwMjc5Iiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjYiLCJ0dGwiOi0xLCJlcnIiOmZhbHNlLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOiIxMTE3MDI3OSIsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiItMSIsImNyZWF0aXZlSUQiOjI2ODg4ODQ5LCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMzAweDI1MCJ9fSwiY29uZiI6eyJ3IjozMDAsImgiOjI1MH19LHsiaWQiOiJMUkVDMiIsImxvd0hUTUwiOiIiLCJtZXRhIjp7InkiOnsicG9zIjoiTFJFQzIiLCJiZWhhdmlvciI6Im5vbl9leHAiLCJhZElEIjoiMTExNzAzMjYiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiMTExNzAzMjYiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6ZmFsc2UsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6IjExMTcwMzI2IiwiZmRiIjpudWxsLCJzZXJ2ZVRpbWUiOi0xLCJpbXBJRCI6Ii0xIiwiY3JlYXRpdmVJRCI6MjY4ODg4NTAsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIzMDB4MjUwIn19LCJjb25mIjp7InciOjMwMCwiaCI6MjUwfX0seyJpZCI6IkxSRUMzIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJMUkVDMyIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIxMTE3MDMyNyIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIxMTE3MDMyNyIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjpmYWxzZSwiaGFzRXh0ZXJuYWwiOmZhbHNlLCJzdXBwX3VnYyI6IiIsInBsYWNlbWVudElEIjoiMTExNzAzMjciLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiLTEiLCJjcmVhdGl2ZUlEIjoyNjg4ODg1MSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjMwMHgyNTAifX0sImNvbmYiOnsidyI6MzAwLCJoIjoyNTB9fSx7ImlkIjoiTFJFQzQiLCJsb3dIVE1MIjoiIiwibWV0YSI6eyJ5Ijp7InBvcyI6IkxSRUM0IiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IjExMTcwMjUzIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IjExMTcwMjUzIiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjYiLCJ0dGwiOi0xLCJlcnIiOmZhbHNlLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOiIxMTE3MDI1MyIsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiItMSIsImNyZWF0aXZlSUQiOjI2ODg4ODUyLCJhZGMiOiJ7XCJsYWJlbFwiOlwiQWRDaG9pY2VzXCIsXCJ1cmxcIjpcImh0dHBzOlxcXC9cXFwvaW5mby55YWhvby5jb21cXFwvcHJpdmFjeVxcXC91c1xcXC95YWhvb1xcXC9yZWxldmFudGFkcy5odG1sXCIsXCJjbG9zZVwiOlwiQ2xvc2VcIixcImNsb3NlQWRcIjpcIkNsb3NlIEFkXCIsXCJzaG93QWRcIjpcIlNob3cgYWRcIixcImNvbGxhcHNlXCI6XCJDb2xsYXBzZVwiLFwiZmRiXCI6XCJJIGRvbid0IGxpa2UgdGhpcyBhZFwiLFwiY29kZVwiOlwiZW4tdXNcIn0iLCJpczNyZCI6MSwiZmFjU3RhdHVzIjp7fSwidXNlclByb3ZpZGVkRGF0YSI6e30sImZhY1JvdGF0aW9uIjp7fSwic2xvdERhdGEiOnt9LCJzaXplIjoiMzAweDI1MCJ9fSwiY29uZiI6eyJ3IjozMDAsImgiOjI1MH19LHsiaWQiOiJNQVNUIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJNQVNUIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMiLCJtYXRjaElEIjoiOTk5OTk5Ljk5OTk5OS45OTk5OTkuOTk5OTk5IiwiYm9va0lEIjoiIiwic2xvdElEIjoiMCIsInNlcnZlVHlwZSI6IjAiLCJ0dGwiOi0xLCJlcnIiOiJpbnZhbGlkIChkYXJsYSkgKG5vKSIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX0seyJpZCI6IlNDUkVDIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJTQ1JFQyIsImJlaGF2aW9yIjoibm9uX2V4cCIsImFkSUQiOiIjMSIsIm1hdGNoSUQiOiI5OTk5OTkuOTk5OTk5Ljk5OTk5OS45OTk5OTkiLCJib29rSUQiOiIiLCJzbG90SUQiOiIwIiwic2VydmVUeXBlIjoiNiIsInR0bCI6LTEsImVyciI6Im5vYWQiLCJoYXNFeHRlcm5hbCI6ZmFsc2UsInN1cHBfdWdjIjoiIiwicGxhY2VtZW50SUQiOi0xLCJmZGIiOm51bGwsInNlcnZlVGltZSI6LTEsImltcElEIjoiIiwiY3JlYXRpdmVJRCI6LTEsImFkYyI6IntcImxhYmVsXCI6XCJBZENob2ljZXNcIixcInVybFwiOlwiaHR0cHM6XFxcL1xcXC9pbmZvLnlhaG9vLmNvbVxcXC9wcml2YWN5XFxcL3VzXFxcL3lhaG9vXFxcL3JlbGV2YW50YWRzLmh0bWxcIixcImNsb3NlXCI6XCJDbG9zZVwiLFwiY2xvc2VBZFwiOlwiQ2xvc2UgQWRcIixcInNob3dBZFwiOlwiU2hvdyBhZFwiLFwiY29sbGFwc2VcIjpcIkNvbGxhcHNlXCIsXCJmZGJcIjpcIkkgZG9uJ3QgbGlrZSB0aGlzIGFkXCIsXCJjb2RlXCI6XCJlbi11c1wifSIsImlzM3JkIjoxLCJmYWNTdGF0dXMiOnt9LCJ1c2VyUHJvdmlkZWREYXRhIjp7fSwiZmFjUm90YXRpb24iOnt9LCJzbG90RGF0YSI6e30sInNpemUiOiIxeDEifX0sImNvbmYiOnsidyI6MSwiaCI6MX19LHsiaWQiOiJGT09UIiwibG93SFRNTCI6IiIsIm1ldGEiOnsieSI6eyJwb3MiOiJGT09UIiwiYmVoYXZpb3IiOiJub25fZXhwIiwiYWRJRCI6IiMxIiwibWF0Y2hJRCI6Ijk5OTk5OS45OTk5OTkuOTk5OTk5Ljk5OTk5OSIsImJvb2tJRCI6IiIsInNsb3RJRCI6IjAiLCJzZXJ2ZVR5cGUiOiI2IiwidHRsIjotMSwiZXJyIjoibm9hZCIsImhhc0V4dGVybmFsIjpmYWxzZSwic3VwcF91Z2MiOiIiLCJwbGFjZW1lbnRJRCI6LTEsImZkYiI6bnVsbCwic2VydmVUaW1lIjotMSwiaW1wSUQiOiIiLCJjcmVhdGl2ZUlEIjotMSwiYWRjIjoie1wibGFiZWxcIjpcIkFkQ2hvaWNlc1wiLFwidXJsXCI6XCJodHRwczpcXFwvXFxcL2luZm8ueWFob28uY29tXFxcL3ByaXZhY3lcXFwvdXNcXFwveWFob29cXFwvcmVsZXZhbnRhZHMuaHRtbFwiLFwiY2xvc2VcIjpcIkNsb3NlXCIsXCJjbG9zZUFkXCI6XCJDbG9zZSBBZFwiLFwic2hvd0FkXCI6XCJTaG93IGFkXCIsXCJjb2xsYXBzZVwiOlwiQ29sbGFwc2VcIixcImZkYlwiOlwiSSBkb24ndCBsaWtlIHRoaXMgYWRcIixcImNvZGVcIjpcImVuLXVzXCJ9IiwiaXMzcmQiOjEsImZhY1N0YXR1cyI6e30sInVzZXJQcm92aWRlZERhdGEiOnt9LCJmYWNSb3RhdGlvbiI6e30sInNsb3REYXRhIjp7fSwic2l6ZSI6IjF4MSJ9fSwiY29uZiI6eyJ3IjoxLCJoIjoxfX1dLCJjb25mIjpudWxsLCJtZXRhIjp7InkiOnsicG9zX2xpc3QiOlsiTU9OIiwiTU9OMiIsIkJUTkEiLCJCVE5CIiwiQlROQyIsIkJUTkQiLCJMRFJCIiwiTFJFQyIsIkxSRUMyIiwiTFJFQzMiLCJMUkVDNCIsIk1BU1QiLCJTQ1JFQyIsIkZPT1QiXSwidHJhbnNJRCI6ImRhcmxhX3ByZWZldGNoXzE2OTM1ODc0MDg1MjdfODk0MjA5MzM2XzMiLCJrMl91cmkiOiIiLCJmYWNfcnQiOi0xLCJ0dGwiOi0xLCJzcGFjZUlEIjoiMTE4MzMwMDAwMiIsImxvb2t1cFRpbWUiOjI2MywicHJvY1RpbWUiOjI2NiwibnB2IjowLCJwdmlkIjoiTHNNc3VqRXdOaTRpQUlFaEZtNjJsZ05aTWpRd01BQUFBQUFMNFhIbiIsInNlcnZlVGltZSI6LTEsImVwIjp7InNpdGUtYXR0cmlidXRlIjoiIGdlbWluaWZlZD0xIGN0b3V0PTQwMCBZLUJVQ0tFVD1maW5hbmNlLVVTLWVuLVVTLWRlZiBMUkVDPTMwMHgyNTAsMXgxIHJzPVwicHQ6aG9tZTtzaXRlOmZpbmFuY2U7dmVyOnlkb3Rjb207bHU6MFwiIG1pZ3JhdGlvbj0xIiwidGd0IjoiX2JsYW5rIiwic2VjdXJlIjp0cnVlLCJyZWYiOiJodHRwczpcL1wvZmluYW5jZS55YWhvby5jb21cLyIsInVsdCI6eyJwZyI6eyJwcm9wZXJ0eSI6ImZpbmFuY2VfZW4tVVMiLCJ0ZXN0IjoiZmluYW5jZS1VUy1lbi1VUy1kZWYiLCJyaWQiOiI3ZTE4NTQ5aWY0NXJhIn19LCJjbHciOnsiTFJFQyI6eyJibG9ja2VkX2J5IjoiTU9OLTEifSwiTU9OLTEiOnsiYmxvY2tlZF9ieSI6IkxSRUMifSwiTUFTVCI6eyJibG9ja2VkX2J5IjoiU1BMLExEUkIifSwiTERSQiI6eyJibG9ja2VkX2J5IjoiTUFTVCxTUEwifSwiU1BMIjp7ImJsb2NrZWRfYnkiOiJNQVNULExEUkIifX0sImxhbmciOiJlbi1VUyIsImZpbHRlciI6Im5vX2V4cGFuZGFibGU7ZXhwX2lmcmFtZV9leHBhbmRhYmxlOyIsImRhcmxhSUQiOiJkYXJsYV9pbnN0YW5jZV8xNjkzNTg3NDA4NTI3XzIxNTEzNjEzNl8yIn0sInB5bSI6eyIuIjoidjAuMC45OzstOyJ9LCJob3N0IjoiIiwiZmlsdGVyZWQiOltdfX19</t>
         </is>
       </c>
     </row>
